--- a/02_data/rawdata/New_excel_Carolina_09.10_20.05.2024.xlsx
+++ b/02_data/rawdata/New_excel_Carolina_09.10_20.05.2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97BE11-F85F-408B-BD5A-92CDC8AC0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D6547-22FB-41CE-911C-754C35E57A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toextract_Carolina" sheetId="1" r:id="rId1"/>
@@ -3653,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL62"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4080,7 +4080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:116" ht="174">
+    <row r="2" spans="1:116" ht="188.5">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:114" ht="261">
+    <row r="24" spans="1:114" ht="275.5">
       <c r="B24" s="68" t="s">
         <v>168</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:114" ht="261">
+    <row r="25" spans="1:114" ht="275.5">
       <c r="B25" s="68" t="s">
         <v>168</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:114" ht="261">
+    <row r="26" spans="1:114" ht="275.5">
       <c r="B26" s="68" t="s">
         <v>168</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:114" ht="261">
+    <row r="27" spans="1:114" ht="275.5">
       <c r="B27" s="68" t="s">
         <v>168</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:114" ht="261">
+    <row r="28" spans="1:114" ht="275.5">
       <c r="B28" s="68" t="s">
         <v>168</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:114" ht="261">
+    <row r="29" spans="1:114" ht="275.5">
       <c r="B29" s="68" t="s">
         <v>168</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:114" ht="261">
+    <row r="30" spans="1:114" ht="275.5">
       <c r="B30" s="68" t="s">
         <v>168</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:114" ht="261">
+    <row r="31" spans="1:114" ht="275.5">
       <c r="B31" s="68" t="s">
         <v>168</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:114" ht="261">
+    <row r="32" spans="1:114" ht="275.5">
       <c r="B32" s="68" t="s">
         <v>168</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:113" ht="261">
+    <row r="33" spans="1:113" ht="275.5">
       <c r="B33" s="68" t="s">
         <v>168</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:113" ht="261">
+    <row r="34" spans="1:113" ht="275.5">
       <c r="B34" s="68" t="s">
         <v>168</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:113" ht="261">
+    <row r="35" spans="1:113" ht="275.5">
       <c r="B35" s="68" t="s">
         <v>168</v>
       </c>
@@ -9878,17 +9878,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DS109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87:F96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B93" sqref="B91:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.6328125" customWidth="1"/>
+    <col min="1" max="1" width="212.6328125" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="33.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="42.26953125" customWidth="1"/>
+    <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="61.453125" customWidth="1"/>
     <col min="9" max="9" width="24.36328125" customWidth="1"/>
     <col min="10" max="10" width="33.81640625" customWidth="1"/>
@@ -9902,15 +9902,20 @@
     <col min="27" max="27" width="41.453125" customWidth="1"/>
     <col min="28" max="28" width="32.453125" customWidth="1"/>
     <col min="29" max="29" width="79.81640625" customWidth="1"/>
-    <col min="30" max="31" width="37.453125" customWidth="1"/>
+    <col min="30" max="30" width="77.90625" customWidth="1"/>
+    <col min="31" max="31" width="37.453125" customWidth="1"/>
     <col min="32" max="32" width="30.36328125" customWidth="1"/>
     <col min="33" max="33" width="50.1796875" customWidth="1"/>
-    <col min="36" max="36" width="46.6328125" customWidth="1"/>
+    <col min="36" max="36" width="211.36328125" customWidth="1"/>
+    <col min="37" max="37" width="12.54296875" customWidth="1"/>
+    <col min="38" max="38" width="7.36328125" customWidth="1"/>
     <col min="41" max="41" width="30.1796875" customWidth="1"/>
     <col min="42" max="43" width="31.81640625" customWidth="1"/>
     <col min="44" max="44" width="18.36328125" customWidth="1"/>
     <col min="45" max="45" width="16.36328125" customWidth="1"/>
     <col min="46" max="46" width="17.453125" customWidth="1"/>
+    <col min="47" max="47" width="13.90625" customWidth="1"/>
+    <col min="48" max="48" width="14.7265625" customWidth="1"/>
     <col min="51" max="51" width="13.08984375" customWidth="1"/>
     <col min="52" max="52" width="15.6328125" customWidth="1"/>
     <col min="57" max="57" width="15.1796875" customWidth="1"/>
@@ -9921,6 +9926,11 @@
     <col min="66" max="66" width="14.6328125" customWidth="1"/>
     <col min="67" max="67" width="29.81640625" customWidth="1"/>
     <col min="68" max="68" width="19.36328125" customWidth="1"/>
+    <col min="71" max="71" width="22.81640625" customWidth="1"/>
+    <col min="72" max="72" width="18.81640625" customWidth="1"/>
+    <col min="73" max="73" width="18.26953125" customWidth="1"/>
+    <col min="79" max="79" width="16" customWidth="1"/>
+    <col min="80" max="80" width="16.453125" customWidth="1"/>
     <col min="85" max="85" width="25.54296875" customWidth="1"/>
     <col min="86" max="86" width="29.08984375" customWidth="1"/>
     <col min="90" max="90" width="13.1796875" customWidth="1"/>
